--- a/imp_results.xlsx
+++ b/imp_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguilarga\surfdrive - Glenn Aguilar Hernandez@surfdrive.surf.nl3\project_UNICA\WP1-Identfication\T&amp;S_framework\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguilarga\surfdrive - Glenn Aguilar Hernandez@surfdrive.surf.nl3\UNICA_project\WP-1 Identification\T&amp;S_framework\Journal of CE\supplementary_information_v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91E834B-D5B8-4446-A1E4-7CD291061EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D201B9B-D2C8-4179-B8B6-4403450078AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="imp_eu" sheetId="1" r:id="rId2"/>
     <sheet name="imp_eu_all" sheetId="2" r:id="rId3"/>
     <sheet name="imp_eu_sum" sheetId="3" r:id="rId4"/>
-    <sheet name="imp_latam" sheetId="4" r:id="rId5"/>
-    <sheet name="imp_latam_all" sheetId="5" r:id="rId6"/>
-    <sheet name="imp_latam_sum" sheetId="6" r:id="rId7"/>
+    <sheet name="imp_lac" sheetId="4" r:id="rId5"/>
+    <sheet name="imp_lac_all" sheetId="5" r:id="rId6"/>
+    <sheet name="imp_lac_sum" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="382">
   <si>
     <t>Categories</t>
   </si>
@@ -1091,18 +1091,12 @@
     <t>lose-tie-win</t>
   </si>
   <si>
-    <t>Supplementary Material</t>
-  </si>
-  <si>
     <t xml:space="preserve">Summary </t>
   </si>
   <si>
     <t>Latest Update:</t>
   </si>
   <si>
-    <t>May 7, 2024</t>
-  </si>
-  <si>
     <t>Guide to sheets in this Excel workbook</t>
   </si>
   <si>
@@ -1143,15 +1137,6 @@
   </si>
   <si>
     <t>imp_eu_sum</t>
-  </si>
-  <si>
-    <t>imp_latam</t>
-  </si>
-  <si>
-    <t>imp_latam_all</t>
-  </si>
-  <si>
-    <t>imp_latam_sum</t>
   </si>
   <si>
     <t xml:space="preserve">Results impact trade-offs and synergies analysis (as the Euclidian sum) for the EU </t>
@@ -1215,7 +1200,25 @@
     <t>GWP</t>
   </si>
   <si>
-    <t>This supplementary information includes the impact analysis of trade-offs and synergies from the circular economy scenarios proposed by 'A MR EEIO-based framework for identifying synergies and trade-offs of circularity interventions'</t>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>November 25, 2024</t>
+  </si>
+  <si>
+    <t>imp_lac</t>
+  </si>
+  <si>
+    <t>imp_lac_all</t>
+  </si>
+  <si>
+    <t>imp_lac_sum</t>
+  </si>
+  <si>
+    <t>Supplementary Information</t>
+  </si>
+  <si>
+    <t>This supplementary information includes the impact analysis of trade-offs and synergies from the circular economy scenarios proposed by 'How to measure Circularity Trade-offs and Synergies?'</t>
   </si>
 </sst>
 </file>
@@ -3121,7 +3124,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>imp_latam!$B$2:$B$5</c:f>
+              <c:f>imp_lac!$B$2:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3141,7 +3144,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>imp_latam!$E$2:$E$5</c:f>
+              <c:f>imp_lac!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3323,7 +3326,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>imp_latam_sum!$A$2:$A$4</c:f>
+              <c:f>imp_lac_sum!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3340,7 +3343,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>imp_latam_sum!$B$2:$B$4</c:f>
+              <c:f>imp_lac_sum!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6291,14 +6294,14 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -6306,17 +6309,17 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -6324,15 +6327,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -6343,71 +6346,71 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D11" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D12" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D13" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D14" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D15" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D16" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -6416,59 +6419,59 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H20" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="K20" s="13" t="s">
         <v>357</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>359</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D21" s="11" t="s">
-        <v>181</v>
+        <v>375</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J22" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -6698,7 +6701,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -9955,7 +9958,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -12935,7 +12938,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B4">
         <v>-9.8585519268550192E-2</v>
@@ -12945,4 +12948,285 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100317CBEDA08705D4BB42289A96E8DCDD6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e9edd756df6fbb2fff0230e09796a6c6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4427c763-4e05-4841-937d-f6f16be4cd7a" xmlns:ns3="5440cd31-8f87-4896-b94d-c46384663020" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d67f5a3378b4fd22fe2076c238cc19a6" ns2:_="" ns3:_="">
+    <xsd:import namespace="4427c763-4e05-4841-937d-f6f16be4cd7a"/>
+    <xsd:import namespace="5440cd31-8f87-4896-b94d-c46384663020"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4427c763-4e05-4841-937d-f6f16be4cd7a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5631252e-6fa5-4b2b-9987-d0b6e83c6b6b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5440cd31-8f87-4896-b94d-c46384663020" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{89707217-de61-4212-b76f-718299af5e23}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="5440cd31-8f87-4896-b94d-c46384663020">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5440cd31-8f87-4896-b94d-c46384663020" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4427c763-4e05-4841-937d-f6f16be4cd7a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{292D3783-67BC-4224-BB0D-999F55EEED56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4427c763-4e05-4841-937d-f6f16be4cd7a"/>
+    <ds:schemaRef ds:uri="5440cd31-8f87-4896-b94d-c46384663020"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{452F09A1-E449-4B5C-B49D-FF548E72EB35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5440cd31-8f87-4896-b94d-c46384663020"/>
+    <ds:schemaRef ds:uri="4427c763-4e05-4841-937d-f6f16be4cd7a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B17ADA-6C8E-42D6-9413-7C7293BDE3F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>